--- a/basic-forms/forms/training/ui_change_more_options.xlsx
+++ b/basic-forms/forms/training/ui_change_more_options.xlsx
@@ -798,7 +798,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9062,31 +9062,31 @@
       <c r="F1019" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A28:F10000 A27:B27 D2:F27 A2:C26">
+  <conditionalFormatting sqref="A28:F10000 A27:B27 D21:F27 A21:C26">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$A2="begin_group"</formula>
+      <formula>$A4="begin_group"</formula>
     </cfRule>
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$A2="end_group"</formula>
+      <formula>$A4="end_group"</formula>
     </cfRule>
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$A2="begin_repeat"</formula>
+      <formula>$A4="begin_repeat"</formula>
     </cfRule>
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$A2="end_repeat"</formula>
+      <formula>$A4="end_repeat"</formula>
     </cfRule>
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK($A2), NOT(ISBLANK(A2)))</formula>
+      <formula>AND(ISBLANK($A4), NOT(ISBLANK(A4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B10000">
+  <conditionalFormatting sqref="B3:B10000">
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
+      <formula>AND(ISBLANK(B4), NOT(ISBLANK($A4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C10000 C2:C26">
+  <conditionalFormatting sqref="C28:C10000 C3:C26">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
+      <formula>AND(ISBLANK(C4),NOT(OR(ISBLANK($A4),$A4="calculate")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
@@ -9109,6 +9109,87 @@
   <conditionalFormatting sqref="C27">
     <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(ISBLANK(C27),NOT(OR(ISBLANK($A27),$A27="calculate")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:F20">
+    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$A3="begin_group"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$A3="end_group"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>$A3="begin_repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>$A3="end_repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(ISBLANK($A3), NOT(ISBLANK(A3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B20">
+    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(ISBLANK(B3), NOT(ISBLANK($A3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C20">
+    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(ISBLANK(C3),NOT(OR(ISBLANK($A3),$A3="calculate")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:F2">
+    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$A2="begin_group"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$A2="end_group"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>$A2="begin_repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>$A2="end_repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(ISBLANK($A2), NOT(ISBLANK(A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:F19">
+    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$A3="begin_group"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$A3="end_group"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>$A3="begin_repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>$A3="end_repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(ISBLANK($A3), NOT(ISBLANK(A3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B19">
+    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(ISBLANK(B3), NOT(ISBLANK($A3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C19">
+    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(ISBLANK(C3),NOT(OR(ISBLANK($A3),$A3="calculate")))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -9148,8 +9229,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="17.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="15.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="32.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="32.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9178,7 +9259,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20250213140035</v>
+        <v>20250213162515</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>37</v>

--- a/basic-forms/forms/training/ui_change_more_options.xlsx
+++ b/basic-forms/forms/training/ui_change_more_options.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -192,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -216,9 +216,6 @@
   </si>
   <si>
     <t xml:space="preserve">intro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO_LABEL</t>
   </si>
   <si>
     <t xml:space="preserve">field-list</t>
@@ -791,14 +788,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1019"/>
+  <dimension ref="A1:F997"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -839,11 +836,9 @@
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -853,10 +848,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -867,10 +862,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -878,7 +873,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -899,13 +894,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -915,10 +908,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -929,20 +922,20 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -963,13 +956,11 @@
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -979,20 +970,20 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1013,13 +1004,11 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1029,10 +1018,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1043,10 +1032,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1054,7 +1043,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1121,6 +1110,7 @@
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -8885,184 +8875,8 @@
       <c r="E997" s="4"/>
       <c r="F997" s="4"/>
     </row>
-    <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="4"/>
-      <c r="B998" s="4"/>
-      <c r="C998" s="4"/>
-      <c r="D998" s="4"/>
-      <c r="E998" s="4"/>
-      <c r="F998" s="4"/>
-    </row>
-    <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="4"/>
-      <c r="B999" s="4"/>
-      <c r="C999" s="4"/>
-      <c r="D999" s="4"/>
-      <c r="E999" s="4"/>
-      <c r="F999" s="4"/>
-    </row>
-    <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="4"/>
-      <c r="B1000" s="4"/>
-      <c r="C1000" s="4"/>
-      <c r="D1000" s="4"/>
-      <c r="E1000" s="4"/>
-      <c r="F1000" s="4"/>
-    </row>
-    <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1001" s="4"/>
-      <c r="B1001" s="4"/>
-      <c r="C1001" s="4"/>
-      <c r="D1001" s="4"/>
-      <c r="E1001" s="4"/>
-      <c r="F1001" s="4"/>
-    </row>
-    <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1002" s="4"/>
-      <c r="B1002" s="4"/>
-      <c r="C1002" s="4"/>
-      <c r="D1002" s="4"/>
-      <c r="E1002" s="4"/>
-      <c r="F1002" s="4"/>
-    </row>
-    <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1003" s="4"/>
-      <c r="B1003" s="4"/>
-      <c r="C1003" s="4"/>
-      <c r="D1003" s="4"/>
-      <c r="E1003" s="4"/>
-      <c r="F1003" s="4"/>
-    </row>
-    <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1004" s="4"/>
-      <c r="B1004" s="4"/>
-      <c r="C1004" s="4"/>
-      <c r="D1004" s="4"/>
-      <c r="E1004" s="4"/>
-      <c r="F1004" s="4"/>
-    </row>
-    <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1005" s="4"/>
-      <c r="B1005" s="4"/>
-      <c r="C1005" s="4"/>
-      <c r="D1005" s="4"/>
-      <c r="E1005" s="4"/>
-      <c r="F1005" s="4"/>
-    </row>
-    <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1006" s="4"/>
-      <c r="B1006" s="4"/>
-      <c r="C1006" s="4"/>
-      <c r="D1006" s="4"/>
-      <c r="E1006" s="4"/>
-      <c r="F1006" s="4"/>
-    </row>
-    <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1007" s="4"/>
-      <c r="B1007" s="4"/>
-      <c r="C1007" s="4"/>
-      <c r="D1007" s="4"/>
-      <c r="E1007" s="4"/>
-      <c r="F1007" s="4"/>
-    </row>
-    <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1008" s="4"/>
-      <c r="B1008" s="4"/>
-      <c r="C1008" s="4"/>
-      <c r="D1008" s="4"/>
-      <c r="E1008" s="4"/>
-      <c r="F1008" s="4"/>
-    </row>
-    <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1009" s="4"/>
-      <c r="B1009" s="4"/>
-      <c r="C1009" s="4"/>
-      <c r="D1009" s="4"/>
-      <c r="E1009" s="4"/>
-      <c r="F1009" s="4"/>
-    </row>
-    <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1010" s="4"/>
-      <c r="B1010" s="4"/>
-      <c r="C1010" s="4"/>
-      <c r="D1010" s="4"/>
-      <c r="E1010" s="4"/>
-      <c r="F1010" s="4"/>
-    </row>
-    <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1011" s="4"/>
-      <c r="B1011" s="4"/>
-      <c r="C1011" s="4"/>
-      <c r="D1011" s="4"/>
-      <c r="E1011" s="4"/>
-      <c r="F1011" s="4"/>
-    </row>
-    <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1012" s="4"/>
-      <c r="B1012" s="4"/>
-      <c r="C1012" s="4"/>
-      <c r="D1012" s="4"/>
-      <c r="E1012" s="4"/>
-      <c r="F1012" s="4"/>
-    </row>
-    <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1013" s="4"/>
-      <c r="B1013" s="4"/>
-      <c r="C1013" s="4"/>
-      <c r="D1013" s="4"/>
-      <c r="E1013" s="4"/>
-      <c r="F1013" s="4"/>
-    </row>
-    <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1014" s="4"/>
-      <c r="B1014" s="4"/>
-      <c r="C1014" s="4"/>
-      <c r="D1014" s="4"/>
-      <c r="E1014" s="4"/>
-      <c r="F1014" s="4"/>
-    </row>
-    <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1015" s="4"/>
-      <c r="B1015" s="4"/>
-      <c r="C1015" s="4"/>
-      <c r="D1015" s="4"/>
-      <c r="E1015" s="4"/>
-      <c r="F1015" s="4"/>
-    </row>
-    <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1016" s="4"/>
-      <c r="B1016" s="4"/>
-      <c r="C1016" s="4"/>
-      <c r="D1016" s="4"/>
-      <c r="E1016" s="4"/>
-      <c r="F1016" s="4"/>
-    </row>
-    <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1017" s="4"/>
-      <c r="B1017" s="4"/>
-      <c r="C1017" s="4"/>
-      <c r="D1017" s="4"/>
-      <c r="E1017" s="4"/>
-      <c r="F1017" s="4"/>
-    </row>
-    <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1018" s="4"/>
-      <c r="B1018" s="4"/>
-      <c r="C1018" s="4"/>
-      <c r="D1018" s="4"/>
-      <c r="E1018" s="4"/>
-      <c r="F1018" s="4"/>
-    </row>
-    <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1019" s="4"/>
-      <c r="B1019" s="4"/>
-      <c r="C1019" s="4"/>
-      <c r="D1019" s="4"/>
-      <c r="E1019" s="4"/>
-      <c r="F1019" s="4"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A28:F10000 A27:B27 D21:F27 A21:C26">
+  <conditionalFormatting sqref="A21:F9978">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A4="begin_group"</formula>
     </cfRule>
@@ -9079,117 +8893,41 @@
       <formula>AND(ISBLANK($A4), NOT(ISBLANK(A4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B10000">
+  <conditionalFormatting sqref="B3:B9978">
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(ISBLANK(B4), NOT(ISBLANK($A4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C10000 C3:C26">
+  <conditionalFormatting sqref="C3:C9978">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(ISBLANK(C4),NOT(OR(ISBLANK($A4),$A4="calculate")))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
+  <conditionalFormatting sqref="A2:F20">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$A27="begin_group"</formula>
+      <formula>$A2="begin_group"</formula>
     </cfRule>
     <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$A27="end_group"</formula>
+      <formula>$A2="end_group"</formula>
     </cfRule>
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$A27="begin_repeat"</formula>
+      <formula>$A2="begin_repeat"</formula>
     </cfRule>
     <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$A27="end_repeat"</formula>
+      <formula>$A2="end_repeat"</formula>
     </cfRule>
     <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK($A27), NOT(ISBLANK(C27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C27),NOT(OR(ISBLANK($A27),$A27="calculate")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:F20">
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$A3="begin_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$A3="end_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$A3="begin_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$A3="end_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK($A3), NOT(ISBLANK(A3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B20">
-    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(B3), NOT(ISBLANK($A3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C20">
-    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C3),NOT(OR(ISBLANK($A3),$A3="calculate")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:F2">
-    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$A2="begin_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$A2="end_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$A2="begin_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$A2="end_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(ISBLANK($A2), NOT(ISBLANK(A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+  <conditionalFormatting sqref="C2:C20">
+    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:F19">
-    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$A3="begin_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$A3="end_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$A3="begin_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$A3="end_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK($A3), NOT(ISBLANK(A3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B19">
-    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(B3), NOT(ISBLANK($A3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C19">
-    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C3),NOT(OR(ISBLANK($A3),$A3="calculate")))</formula>
+  <conditionalFormatting sqref="B2:B20">
+    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -9197,7 +8935,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="If configuring a select, ensure your list name matches a list from the choices sheet." errorStyle="information" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A1015" type="list">
+    <dataValidation allowBlank="true" error="If configuring a select, ensure your list name matches a list from the choices sheet." errorStyle="information" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A993" type="list">
       <formula1>"begin_group,end_group,note,calculate,text,integer,decimal,select_one list_name,select_multiple list_name,date,time,datetime,begin_repeat,end_repeat,geopoint,geotrace,geoshape,start-geopoint,range,image,audio,video,file,rank,acknowledge,start,end,today"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9235,37 +8973,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="6" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C2" s="7" t="str">
         <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20250213162515</v>
+        <v>20251119134241</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
